--- a/biology/Botanique/Oligostachyum/Oligostachyum.xlsx
+++ b/biology/Botanique/Oligostachyum/Oligostachyum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oligostachyum est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire de Chine, qui regroupe une quinzaine d'espèces. 
 Ce sont des bambous traçants aux feuilles longues et étroites et dont la taille des chaumes aux nœuds renflés, varie selon les espèces, de petite à moyenne. Ils sont originaires de la Chine côtière.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (11 avril 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (11 avril 2018) :
 Oligostachyum bilobum W.T.Lin &amp; Z.J.Feng (1994)
 Oligostachyum glabrescens (T.H.Wen) Q.F.Zheng &amp; Z.P.Wang, J. Nanjing Univ. (1990)
 Oligostachyum gracilipes (McClure) G.H.Ye &amp; Z.P.Wang, J. Nanjing Univ. (1990)
